--- a/pred_ohlcv/54_21/2020-01-13 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 PAY ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-56088.87477680105</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-42602.87477680105</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-45084.33477680105</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-28962.44917680105</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-41611.01747680105</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>24858.77982319895</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6773.83837680105</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-9484.45537680105</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-43066.88537680104</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-33266.51847680104</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-23876.51787680104</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-28427.39657680105</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>25333.51482319895</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25333.51482319895</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>695076.7896231989</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>638843.2439231989</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>516535.4101231989</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>490543.9037231989</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>477887.1188231988</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>517933.5045231989</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>518015.5045231989</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>500474.8330231989</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>482922.154723199</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>482818.154723199</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>483150.154723199</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>483216.154723199</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>483149.154723199</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>484305.154723199</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>480232.154723199</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>479802.154723199</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 PAY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-40408.97897680105</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-48423.76097680105</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-56088.87477680105</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-42602.87477680105</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-45084.33477680105</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-28962.44917680105</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-41611.01747680105</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>59573.70882319895</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>24858.77982319895</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6773.83837680105</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-9484.45537680105</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-43066.88537680104</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-33266.51847680104</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-23876.51787680104</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-27138.51787680104</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-28427.39657680105</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>25333.51482319895</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25333.51482319895</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>695076.7896231989</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>638843.2439231989</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>516535.4101231989</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>490543.9037231989</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>477887.1188231988</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>440472.5702231989</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>517933.5045231989</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>518015.5045231989</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>500474.8330231989</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>482922.154723199</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>482818.154723199</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>483150.154723199</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>483216.154723199</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>483149.154723199</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>484305.154723199</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>480232.154723199</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>479802.154723199</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
